--- a/Part-File (version 1).xlsx
+++ b/Part-File (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Harvest-X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98468193-C57F-4015-A761-60AE35F781EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0FC6F-3DEB-4357-B0C7-C3E532A3B400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="479">
   <si>
     <t>Event Date</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>Liam</t>
-  </si>
-  <si>
-    <t>Noah</t>
   </si>
   <si>
     <t>William</t>
@@ -1804,7 +1801,7 @@
   <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1880,7 @@
         <v>Smith</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(C2, "@aggies.ncat.edu")</f>
@@ -1913,18 +1910,18 @@
         <v>35149408</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">PROPER(E3)</f>
+        <f>PROPER(E3)</f>
         <v>Johnson</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="1">CONCATENATE(C3, "@aggies.ncat.edu")</f>
-        <v>Noah@aggies.ncat.edu</v>
+        <f t="shared" ref="F3:F66" si="0">CONCATENATE(C3, "@aggies.ncat.edu")</f>
+        <v>Liam@aggies.ncat.edu</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1947,17 +1944,17 @@
         <v>23990006</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="str">
+        <f t="shared" ref="D3:D66" si="1">PROPER(E4)</f>
+        <v>Williams</v>
+      </c>
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Williams</v>
-      </c>
-      <c r="E4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
         <v>William@aggies.ncat.edu</v>
       </c>
       <c r="H4">
@@ -1981,17 +1978,17 @@
         <v>24178870</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>Jones</v>
-      </c>
-      <c r="E5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
         <v>James@aggies.ncat.edu</v>
       </c>
       <c r="H5">
@@ -2015,17 +2012,17 @@
         <v>33110972</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="E6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Brown</v>
-      </c>
-      <c r="E6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
         <v>Logan@aggies.ncat.edu</v>
       </c>
       <c r="H6">
@@ -2046,17 +2043,17 @@
         <v>19161166</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Davis</v>
+      </c>
+      <c r="E7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Davis</v>
-      </c>
-      <c r="E7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
         <v>Benjamin@aggies.ncat.edu</v>
       </c>
       <c r="H7">
@@ -2080,17 +2077,17 @@
         <v>24184300</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="E8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Miller</v>
-      </c>
-      <c r="E8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
         <v>Mason@aggies.ncat.edu</v>
       </c>
       <c r="H8">
@@ -2114,17 +2111,17 @@
         <v>14080170</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="E9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Wilson</v>
-      </c>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
         <v>Emmanuel@aggies.ncat.edu</v>
       </c>
       <c r="H9">
@@ -2148,17 +2145,17 @@
         <v>35149688</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>Moore</v>
+      </c>
+      <c r="E10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Moore</v>
-      </c>
-      <c r="E10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
         <v>Oliver@aggies.ncat.edu</v>
       </c>
       <c r="H10">
@@ -2179,17 +2176,17 @@
         <v>21911838</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="E11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Taylor</v>
-      </c>
-      <c r="E11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
         <v>Jacob@aggies.ncat.edu</v>
       </c>
       <c r="H11">
@@ -2213,17 +2210,17 @@
         <v>24172892</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Anderson</v>
+      </c>
+      <c r="E12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Anderson</v>
-      </c>
-      <c r="E12" t="s">
-        <v>334</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
         <v>Lucas@aggies.ncat.edu</v>
       </c>
       <c r="H12">
@@ -2247,17 +2244,17 @@
         <v>21737482</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas</v>
+      </c>
+      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>Thomas</v>
-      </c>
-      <c r="E13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
         <v>Michael@aggies.ncat.edu</v>
       </c>
       <c r="H13">
@@ -2281,17 +2278,17 @@
         <v>24180814</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Jackson</v>
+      </c>
+      <c r="E14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Jackson</v>
-      </c>
-      <c r="E14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
         <v>Alexander@aggies.ncat.edu</v>
       </c>
       <c r="H14">
@@ -2315,17 +2312,17 @@
         <v>32826952</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>White</v>
+      </c>
+      <c r="E15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>White</v>
-      </c>
-      <c r="E15" t="s">
-        <v>337</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
         <v>Ethan@aggies.ncat.edu</v>
       </c>
       <c r="H15">
@@ -2349,17 +2346,17 @@
         <v>33358984</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Harris</v>
+      </c>
+      <c r="E16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Harris</v>
-      </c>
-      <c r="E16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
         <v>Daniel@aggies.ncat.edu</v>
       </c>
       <c r="H16">
@@ -2383,17 +2380,17 @@
         <v>34873778</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Martin</v>
+      </c>
+      <c r="E17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Martin</v>
-      </c>
-      <c r="E17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
         <v>Matthew@aggies.ncat.edu</v>
       </c>
       <c r="H17">
@@ -2417,17 +2414,17 @@
         <v>20056942</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Thompson</v>
+      </c>
+      <c r="E18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Thompson</v>
-      </c>
-      <c r="E18" t="s">
-        <v>340</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
         <v>Aiden@aggies.ncat.edu</v>
       </c>
       <c r="H18">
@@ -2451,17 +2448,17 @@
         <v>13362004</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Garcia</v>
+      </c>
+      <c r="E19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Garcia</v>
-      </c>
-      <c r="E19" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
         <v>Henry@aggies.ncat.edu</v>
       </c>
       <c r="H19">
@@ -2485,17 +2482,17 @@
         <v>24173538</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Martinez</v>
+      </c>
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Martinez</v>
-      </c>
-      <c r="E20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
         <v>Joseph@aggies.ncat.edu</v>
       </c>
       <c r="H20">
@@ -2519,17 +2516,17 @@
         <v>13468654</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>Robinson</v>
+      </c>
+      <c r="E21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Robinson</v>
-      </c>
-      <c r="E21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
         <v>Jackson@aggies.ncat.edu</v>
       </c>
       <c r="H21">
@@ -2553,17 +2550,17 @@
         <v>18083922</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>Clark</v>
+      </c>
+      <c r="E22" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Clark</v>
-      </c>
-      <c r="E22" t="s">
-        <v>344</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
         <v>Samuel@aggies.ncat.edu</v>
       </c>
       <c r="H22">
@@ -2587,17 +2584,17 @@
         <v>17711160</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Rodriguez</v>
+      </c>
+      <c r="E23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Rodriguez</v>
-      </c>
-      <c r="E23" t="s">
-        <v>345</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
         <v>Sebastian@aggies.ncat.edu</v>
       </c>
       <c r="H23">
@@ -2624,17 +2621,17 @@
         <v>24178348</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>Lewis</v>
+      </c>
+      <c r="E24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Lewis</v>
-      </c>
-      <c r="E24" t="s">
-        <v>346</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
         <v>David@aggies.ncat.edu</v>
       </c>
       <c r="H24">
@@ -2661,17 +2658,17 @@
         <v>35149554</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Lee</v>
+      </c>
+      <c r="E25" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Lee</v>
-      </c>
-      <c r="E25" t="s">
-        <v>347</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
         <v>Carter@aggies.ncat.edu</v>
       </c>
       <c r="H25">
@@ -2695,17 +2692,17 @@
         <v>35017316</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker</v>
+      </c>
+      <c r="E26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Walker</v>
-      </c>
-      <c r="E26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
         <v>Wyatt@aggies.ncat.edu</v>
       </c>
       <c r="H26">
@@ -2729,17 +2726,17 @@
         <v>25247948</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>Hall</v>
+      </c>
+      <c r="E27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Hall</v>
-      </c>
-      <c r="E27" t="s">
-        <v>349</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
         <v>Jayden@aggies.ncat.edu</v>
       </c>
       <c r="H27">
@@ -2763,17 +2760,17 @@
         <v>9497784</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>Allen</v>
+      </c>
+      <c r="E28" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>Allen</v>
-      </c>
-      <c r="E28" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
         <v>John@aggies.ncat.edu</v>
       </c>
       <c r="H28">
@@ -2797,17 +2794,17 @@
         <v>33790700</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>Young</v>
+      </c>
+      <c r="E29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Young</v>
-      </c>
-      <c r="E29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
         <v>Owen@aggies.ncat.edu</v>
       </c>
       <c r="H29">
@@ -2834,17 +2831,17 @@
         <v>34647666</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>Hernandez</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Hernandez</v>
-      </c>
-      <c r="E30" t="s">
-        <v>352</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
         <v>Dylan@aggies.ncat.edu</v>
       </c>
       <c r="H30">
@@ -2871,17 +2868,17 @@
         <v>34650020</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>King</v>
+      </c>
+      <c r="E31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>King</v>
-      </c>
-      <c r="E31" t="s">
-        <v>353</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
         <v>Luke@aggies.ncat.edu</v>
       </c>
       <c r="H31">
@@ -2905,17 +2902,17 @@
         <v>18946998</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>Wright</v>
+      </c>
+      <c r="E32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>Wright</v>
-      </c>
-      <c r="E32" t="s">
-        <v>354</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
         <v>Gabriel@aggies.ncat.edu</v>
       </c>
       <c r="H32">
@@ -2942,17 +2939,17 @@
         <v>24175886</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>Lopez</v>
+      </c>
+      <c r="E33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>Lopez</v>
-      </c>
-      <c r="E33" t="s">
-        <v>355</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
         <v>Anthony@aggies.ncat.edu</v>
       </c>
       <c r="H33">
@@ -2976,17 +2973,17 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>Hill</v>
+      </c>
+      <c r="E34" t="s">
+        <v>355</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Hill</v>
-      </c>
-      <c r="E34" t="s">
-        <v>356</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
         <v>Isaac@aggies.ncat.edu</v>
       </c>
       <c r="H34">
@@ -3010,17 +3007,17 @@
         <v>16830662</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>Scott</v>
+      </c>
+      <c r="E35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>Scott</v>
-      </c>
-      <c r="E35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
         <v>Grayson@aggies.ncat.edu</v>
       </c>
       <c r="H35">
@@ -3044,17 +3041,17 @@
         <v>33880584</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>Green</v>
+      </c>
+      <c r="E36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>Green</v>
-      </c>
-      <c r="E36" t="s">
-        <v>358</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
         <v>Jack@aggies.ncat.edu</v>
       </c>
       <c r="H36">
@@ -3081,17 +3078,17 @@
         <v>35182260</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>Adams</v>
+      </c>
+      <c r="E37" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>Adams</v>
-      </c>
-      <c r="E37" t="s">
-        <v>359</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
         <v>Julian@aggies.ncat.edu</v>
       </c>
       <c r="H37">
@@ -3115,17 +3112,17 @@
         <v>35182270</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>Baker</v>
+      </c>
+      <c r="E38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>Baker</v>
-      </c>
-      <c r="E38" t="s">
-        <v>360</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
         <v>Levi@aggies.ncat.edu</v>
       </c>
       <c r="H38">
@@ -3152,17 +3149,17 @@
         <v>24178794</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>Gonzalez</v>
+      </c>
+      <c r="E39" t="s">
+        <v>360</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>Gonzalez</v>
-      </c>
-      <c r="E39" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
         <v>Christopher@aggies.ncat.edu</v>
       </c>
       <c r="H39">
@@ -3186,17 +3183,17 @@
         <v>24184502</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>Nelson</v>
+      </c>
+      <c r="E40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>Nelson</v>
-      </c>
-      <c r="E40" t="s">
-        <v>362</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
         <v>Thanos@aggies.ncat.edu</v>
       </c>
       <c r="H40">
@@ -3220,17 +3217,17 @@
         <v>12404356</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>Carter</v>
+      </c>
+      <c r="E41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>Carter</v>
-      </c>
-      <c r="E41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
         <v>Andrew@aggies.ncat.edu</v>
       </c>
       <c r="H41">
@@ -3254,17 +3251,17 @@
         <v>24178348</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>Mitchell</v>
+      </c>
+      <c r="E42" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>Mitchell</v>
-      </c>
-      <c r="E42" t="s">
-        <v>364</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
         <v>Lincoln@aggies.ncat.edu</v>
       </c>
       <c r="H42">
@@ -3291,17 +3288,17 @@
         <v>24176626</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>Perez</v>
+      </c>
+      <c r="E43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>Perez</v>
-      </c>
-      <c r="E43" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
         <v>Mateo@aggies.ncat.edu</v>
       </c>
       <c r="H43">
@@ -3328,17 +3325,17 @@
         <v>33188748</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>Roberts</v>
+      </c>
+      <c r="E44" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>Roberts</v>
-      </c>
-      <c r="E44" t="s">
-        <v>366</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
         <v>Ryan@aggies.ncat.edu</v>
       </c>
       <c r="H44">
@@ -3362,17 +3359,17 @@
         <v>35172754</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>Turner</v>
+      </c>
+      <c r="E45" t="s">
+        <v>366</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>Turner</v>
-      </c>
-      <c r="E45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
         <v>Jaxon@aggies.ncat.edu</v>
       </c>
       <c r="H45">
@@ -3396,17 +3393,17 @@
         <v>24172420</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>Phillips</v>
+      </c>
+      <c r="E46" t="s">
+        <v>367</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>Phillips</v>
-      </c>
-      <c r="E46" t="s">
-        <v>368</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="1"/>
         <v>Nathan@aggies.ncat.edu</v>
       </c>
       <c r="H46">
@@ -3430,17 +3427,17 @@
         <v>24184300</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>Campbell</v>
+      </c>
+      <c r="E47" t="s">
+        <v>368</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>Campbell</v>
-      </c>
-      <c r="E47" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="1"/>
         <v>Aaron@aggies.ncat.edu</v>
       </c>
       <c r="H47">
@@ -3464,17 +3461,17 @@
         <v>35203756</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>Parker</v>
+      </c>
+      <c r="E48" t="s">
+        <v>369</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>Parker</v>
-      </c>
-      <c r="E48" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="1"/>
         <v>Isaiah@aggies.ncat.edu</v>
       </c>
       <c r="H48">
@@ -3501,17 +3498,17 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>Evans</v>
+      </c>
+      <c r="E49" t="s">
+        <v>370</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>Evans</v>
-      </c>
-      <c r="E49" t="s">
-        <v>371</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
         <v>Thomas@aggies.ncat.edu</v>
       </c>
       <c r="H49">
@@ -3535,17 +3532,17 @@
         <v>23383672</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>Edwards</v>
+      </c>
+      <c r="E50" t="s">
+        <v>371</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>Edwards</v>
-      </c>
-      <c r="E50" t="s">
-        <v>372</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="1"/>
         <v>Charles@aggies.ncat.edu</v>
       </c>
       <c r="H50">
@@ -3572,17 +3569,17 @@
         <v>16978658</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>Collins</v>
+      </c>
+      <c r="E51" t="s">
+        <v>372</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>Collins</v>
-      </c>
-      <c r="E51" t="s">
-        <v>373</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="1"/>
         <v>Caleb@aggies.ncat.edu</v>
       </c>
       <c r="H51">
@@ -3606,17 +3603,17 @@
         <v>24182572</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>Stewart</v>
+      </c>
+      <c r="E52" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>Stewart</v>
-      </c>
-      <c r="E52" t="s">
-        <v>374</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="1"/>
         <v>Josiah@aggies.ncat.edu</v>
       </c>
       <c r="H52">
@@ -3643,17 +3640,17 @@
         <v>23743754</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>Sanchez</v>
+      </c>
+      <c r="E53" t="s">
+        <v>374</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>Sanchez</v>
-      </c>
-      <c r="E53" t="s">
-        <v>375</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="1"/>
         <v>Christian@aggies.ncat.edu</v>
       </c>
       <c r="H53">
@@ -3680,17 +3677,17 @@
         <v>34937438</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>Morris</v>
+      </c>
+      <c r="E54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>Morris</v>
-      </c>
-      <c r="E54" t="s">
-        <v>376</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="1"/>
         <v>Hunter@aggies.ncat.edu</v>
       </c>
       <c r="H54">
@@ -3717,17 +3714,17 @@
         <v>35204170</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>Rogers</v>
+      </c>
+      <c r="E55" t="s">
+        <v>376</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>Rogers</v>
-      </c>
-      <c r="E55" t="s">
-        <v>377</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="1"/>
         <v>Eli@aggies.ncat.edu</v>
       </c>
       <c r="H55">
@@ -3751,17 +3748,17 @@
         <v>34413216</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>Reed</v>
+      </c>
+      <c r="E56" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>Reed</v>
-      </c>
-      <c r="E56" t="s">
-        <v>378</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="1"/>
         <v>Jonathan@aggies.ncat.edu</v>
       </c>
       <c r="H56">
@@ -3785,17 +3782,17 @@
         <v>23572320</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>Cook</v>
+      </c>
+      <c r="E57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>Cook</v>
-      </c>
-      <c r="E57" t="s">
-        <v>379</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="1"/>
         <v>Connor@aggies.ncat.edu</v>
       </c>
       <c r="H57">
@@ -3822,17 +3819,17 @@
         <v>12405372</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>Morgan</v>
+      </c>
+      <c r="E58" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>Morgan</v>
-      </c>
-      <c r="E58" t="s">
-        <v>380</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="1"/>
         <v>Landon@aggies.ncat.edu</v>
       </c>
       <c r="H58">
@@ -3859,17 +3856,17 @@
         <v>35214520</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>Bell</v>
+      </c>
+      <c r="E59" t="s">
+        <v>380</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>Bell</v>
-      </c>
-      <c r="E59" t="s">
-        <v>381</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="1"/>
         <v>Adrian@aggies.ncat.edu</v>
       </c>
       <c r="H59">
@@ -3896,17 +3893,17 @@
         <v>22196576</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>Murphy</v>
+      </c>
+      <c r="E60" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>Murphy</v>
-      </c>
-      <c r="E60" t="s">
-        <v>382</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="1"/>
         <v>Asher@aggies.ncat.edu</v>
       </c>
       <c r="H60">
@@ -3933,17 +3930,17 @@
         <v>24182374</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>Bailey</v>
+      </c>
+      <c r="E61" t="s">
+        <v>382</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>Bailey</v>
-      </c>
-      <c r="E61" t="s">
-        <v>383</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="1"/>
         <v>Cameron@aggies.ncat.edu</v>
       </c>
       <c r="H61">
@@ -3967,17 +3964,17 @@
         <v>24172012</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>Rivera</v>
+      </c>
+      <c r="E62" t="s">
+        <v>383</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>Rivera</v>
-      </c>
-      <c r="E62" t="s">
-        <v>384</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="1"/>
         <v>Leo@aggies.ncat.edu</v>
       </c>
       <c r="H62">
@@ -4001,17 +3998,17 @@
         <v>24183700</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>Cooper</v>
+      </c>
+      <c r="E63" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>Cooper</v>
-      </c>
-      <c r="E63" t="s">
-        <v>385</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="1"/>
         <v>Theodore@aggies.ncat.edu</v>
       </c>
       <c r="H63">
@@ -4035,17 +4032,17 @@
         <v>24175174</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>Richardson</v>
+      </c>
+      <c r="E64" t="s">
+        <v>385</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>Richardson</v>
-      </c>
-      <c r="E64" t="s">
-        <v>386</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="1"/>
         <v>Jeremiah@aggies.ncat.edu</v>
       </c>
       <c r="H64">
@@ -4072,17 +4069,17 @@
         <v>24181260</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>Cox</v>
+      </c>
+      <c r="E65" t="s">
+        <v>386</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>Cox</v>
-      </c>
-      <c r="E65" t="s">
-        <v>387</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="1"/>
         <v>Hudson@aggies.ncat.edu</v>
       </c>
       <c r="H65">
@@ -4109,17 +4106,17 @@
         <v>35214520</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>Howard</v>
+      </c>
+      <c r="E66" t="s">
+        <v>387</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>Howard</v>
-      </c>
-      <c r="E66" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="1"/>
         <v>Robert@aggies.ncat.edu</v>
       </c>
       <c r="H66">
@@ -4146,14 +4143,14 @@
         <v>12404356</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D130" si="2">PROPER(E67)</f>
         <v>Ward</v>
       </c>
       <c r="E67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="3">CONCATENATE(C67, "@aggies.ncat.edu")</f>
@@ -4180,14 +4177,14 @@
         <v>35167850</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
         <v>Torres</v>
       </c>
       <c r="E68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
@@ -4214,14 +4211,14 @@
         <v>17691620</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="2"/>
         <v>Peterson</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="3"/>
@@ -4248,14 +4245,14 @@
         <v>24176772</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
         <v>Gray</v>
       </c>
       <c r="E70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="3"/>
@@ -4282,14 +4279,14 @@
         <v>24172736</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
         <v>Ramirez</v>
       </c>
       <c r="E71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="3"/>
@@ -4316,14 +4313,14 @@
         <v>33979130</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
         <v>James</v>
       </c>
       <c r="E72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="3"/>
@@ -4350,14 +4347,14 @@
         <v>34647666</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
         <v>Watson</v>
       </c>
       <c r="E73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="3"/>
@@ -4387,14 +4384,14 @@
         <v>24042262</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
         <v>Brooks</v>
       </c>
       <c r="E74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="3"/>
@@ -4421,14 +4418,14 @@
         <v>24184502</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
         <v>Kelly</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="3"/>
@@ -4455,14 +4452,14 @@
         <v>13468654</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
         <v>Sanders</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="3"/>
@@ -4489,14 +4486,14 @@
         <v>34413216</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
         <v>Price</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
@@ -4523,14 +4520,14 @@
         <v>18083922</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
         <v>Bennett</v>
       </c>
       <c r="E78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="3"/>
@@ -4557,14 +4554,14 @@
         <v>33357310</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
         <v>Wood</v>
       </c>
       <c r="E79" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
@@ -4591,14 +4588,14 @@
         <v>33333436</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
         <v>Barnes</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="3"/>
@@ -4625,14 +4622,14 @@
         <v>35287232</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
         <v>Ross</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="3"/>
@@ -4659,14 +4656,14 @@
         <v>24170128</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
         <v>Henderson</v>
       </c>
       <c r="E82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="3"/>
@@ -4693,14 +4690,14 @@
         <v>32148190</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
         <v>Coleman</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
@@ -4727,14 +4724,14 @@
         <v>34647666</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
         <v>Jenkins</v>
       </c>
       <c r="E84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
@@ -4764,14 +4761,14 @@
         <v>24183700</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
         <v>Perry</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
@@ -4798,14 +4795,14 @@
         <v>21951896</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
         <v>Powell</v>
       </c>
       <c r="E86" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
@@ -4832,14 +4829,14 @@
         <v>19198536</v>
       </c>
       <c r="C87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
         <v>Long</v>
       </c>
       <c r="E87" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
@@ -4869,14 +4866,14 @@
         <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
         <v>Patterson</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
@@ -4903,14 +4900,14 @@
         <v>24176772</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
         <v>Hughes</v>
       </c>
       <c r="E89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
@@ -4937,14 +4934,14 @@
         <v>22096704</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
         <v>Flores</v>
       </c>
       <c r="E90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="3"/>
@@ -4974,14 +4971,14 @@
         <v>35204170</v>
       </c>
       <c r="C91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
         <v>Washington</v>
       </c>
       <c r="E91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="3"/>
@@ -5008,14 +5005,14 @@
         <v>34937438</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
         <v>Butler</v>
       </c>
       <c r="E92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
@@ -5045,14 +5042,14 @@
         <v>34775990</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
         <v>Simmons</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
@@ -5079,14 +5076,14 @@
         <v>24177618</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
         <v>Foster</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
@@ -5113,14 +5110,14 @@
         <v>24184300</v>
       </c>
       <c r="C95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
         <v>Gonzales</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
@@ -5150,14 +5147,14 @@
         <v>35172754</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
         <v>Bryant</v>
       </c>
       <c r="E96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
@@ -5187,14 +5184,14 @@
         <v>33188748</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
         <v>Alexander</v>
       </c>
       <c r="E97" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
@@ -5224,14 +5221,14 @@
         <v>24173698</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
         <v>Russell</v>
       </c>
       <c r="E98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
@@ -5258,14 +5255,14 @@
         <v>35017316</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="2"/>
         <v>Griffin</v>
       </c>
       <c r="E99" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
@@ -5292,14 +5289,14 @@
         <v>34647666</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="2"/>
         <v>Diaz</v>
       </c>
       <c r="E100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
@@ -5329,14 +5326,14 @@
         <v>24184502</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="2"/>
         <v>Hayes</v>
       </c>
       <c r="E101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
@@ -5363,14 +5360,14 @@
         <v>24173132</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="2"/>
         <v>Myers</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
@@ -5400,14 +5397,14 @@
         <v>35149408</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
@@ -5434,14 +5431,14 @@
         <v>24179662</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="2"/>
         <v>Hamilton</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
@@ -5468,14 +5465,14 @@
         <v>24178348</v>
       </c>
       <c r="C105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="2"/>
         <v>Graham</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
@@ -5505,14 +5502,14 @@
         <v>34647666</v>
       </c>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="2"/>
         <v>Sullivan</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
@@ -5539,14 +5536,14 @@
         <v>35393192</v>
       </c>
       <c r="C107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="2"/>
         <v>Wallace</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
@@ -5573,14 +5570,14 @@
         <v>22096704</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
         <v>Woods</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
@@ -5610,14 +5607,14 @@
         <v>12404356</v>
       </c>
       <c r="C109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="2"/>
         <v>Cole</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
@@ -5641,14 +5638,14 @@
         <v>33427064</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="2"/>
         <v>West</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
@@ -5678,14 +5675,14 @@
         <v>24184300</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="2"/>
         <v>Jordan</v>
       </c>
       <c r="E111" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
@@ -5712,14 +5709,14 @@
         <v>13362004</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
         <v>Owens</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
@@ -5746,14 +5743,14 @@
         <v>35214520</v>
       </c>
       <c r="C113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="2"/>
         <v>Reynolds</v>
       </c>
       <c r="E113" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
@@ -5783,14 +5780,14 @@
         <v>35204170</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="2"/>
         <v>Fisher</v>
       </c>
       <c r="E114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
@@ -5817,14 +5814,14 @@
         <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="2"/>
         <v>Ellis</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
@@ -5851,14 +5848,14 @@
         <v>33188748</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="2"/>
         <v>Harrison</v>
       </c>
       <c r="E116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
@@ -5885,14 +5882,14 @@
         <v>35172754</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="2"/>
         <v>Gibson</v>
       </c>
       <c r="E117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
@@ -5919,14 +5916,14 @@
         <v>33742996</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
         <v>Mcdonald</v>
       </c>
       <c r="E118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
@@ -5953,14 +5950,14 @@
         <v>23817212</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="2"/>
         <v>Cruz</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
@@ -5987,14 +5984,14 @@
         <v>24174106</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="2"/>
         <v>Marshall</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
@@ -6021,14 +6018,14 @@
         <v>23572320</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
         <v>Ortiz</v>
       </c>
       <c r="E121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
@@ -6058,14 +6055,14 @@
         <v>35204170</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
         <v>Gomez</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
@@ -6092,14 +6089,14 @@
         <v>18946998</v>
       </c>
       <c r="C123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="2"/>
         <v>Murray</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
@@ -6129,14 +6126,14 @@
         <v>24176626</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
         <v>Freeman</v>
       </c>
       <c r="E124" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
@@ -6166,14 +6163,14 @@
         <v>24179316</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="2"/>
         <v>Wells</v>
       </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
@@ -6203,14 +6200,14 @@
         <v>12405372</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
         <v>Webb</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
@@ -6240,14 +6237,14 @@
         <v>24184502</v>
       </c>
       <c r="C127" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="2"/>
         <v>Simpson</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
@@ -6274,14 +6271,14 @@
         <v>16834626</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="2"/>
         <v>Stevens</v>
       </c>
       <c r="E128" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
@@ -6308,14 +6305,14 @@
         <v>24173132</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="2"/>
         <v>Tucker</v>
       </c>
       <c r="E129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
@@ -6345,14 +6342,14 @@
         <v>24184502</v>
       </c>
       <c r="C130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="2"/>
         <v>Porter</v>
       </c>
       <c r="E130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
@@ -6379,14 +6376,14 @@
         <v>24174244</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:D157" si="4">PROPER(E131)</f>
         <v>Hunter</v>
       </c>
       <c r="E131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F157" si="5">CONCATENATE(C131, "@aggies.ncat.edu")</f>
@@ -6413,14 +6410,14 @@
         <v>14197736</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="4"/>
         <v>Hicks</v>
       </c>
       <c r="E132" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="5"/>
@@ -6447,14 +6444,14 @@
         <v>22096704</v>
       </c>
       <c r="C133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="4"/>
         <v>Crawford</v>
       </c>
       <c r="E133" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="5"/>
@@ -6484,14 +6481,14 @@
         <v>34680624</v>
       </c>
       <c r="C134" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="4"/>
         <v>Henry</v>
       </c>
       <c r="E134" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="5"/>
@@ -6518,14 +6515,14 @@
         <v>18946998</v>
       </c>
       <c r="C135" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="4"/>
         <v>Boyd</v>
       </c>
       <c r="E135" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="5"/>
@@ -6555,14 +6552,14 @@
         <v>33979130</v>
       </c>
       <c r="C136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="4"/>
         <v>Mason</v>
       </c>
       <c r="E136" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="5"/>
@@ -6589,14 +6586,14 @@
         <v>33720088</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="4"/>
         <v>Morales</v>
       </c>
       <c r="E137" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="5"/>
@@ -6620,14 +6617,14 @@
         <v>18685844</v>
       </c>
       <c r="C138" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="4"/>
         <v>Kennedy</v>
       </c>
       <c r="E138" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="5"/>
@@ -6654,14 +6651,14 @@
         <v>23487944</v>
       </c>
       <c r="C139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="4"/>
         <v>Warren</v>
       </c>
       <c r="E139" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="5"/>
@@ -6685,14 +6682,14 @@
         <v>18083922</v>
       </c>
       <c r="C140" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="4"/>
         <v>Dixon</v>
       </c>
       <c r="E140" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="5"/>
@@ -6716,14 +6713,14 @@
         <v>23816890</v>
       </c>
       <c r="C141" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="4"/>
         <v>Ramos</v>
       </c>
       <c r="E141" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="5"/>
@@ -6750,14 +6747,14 @@
         <v>24178348</v>
       </c>
       <c r="C142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="4"/>
         <v>Reyes</v>
       </c>
       <c r="E142" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="5"/>
@@ -6784,14 +6781,14 @@
         <v>16830868</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="4"/>
         <v>Burns</v>
       </c>
       <c r="E143" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="5"/>
@@ -6818,14 +6815,14 @@
         <v>35203756</v>
       </c>
       <c r="C144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="4"/>
         <v>Gordon</v>
       </c>
       <c r="E144" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="5"/>
@@ -6852,14 +6849,14 @@
         <v>33524160</v>
       </c>
       <c r="C145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="4"/>
         <v>Shaw</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="5"/>
@@ -6886,14 +6883,14 @@
         <v>32800506</v>
       </c>
       <c r="C146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="4"/>
         <v>Holmes</v>
       </c>
       <c r="E146" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="5"/>
@@ -6917,14 +6914,14 @@
         <v>12405372</v>
       </c>
       <c r="C147" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="4"/>
         <v>Rice</v>
       </c>
       <c r="E147" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="5"/>
@@ -6951,14 +6948,14 @@
         <v>24183758</v>
       </c>
       <c r="C148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="4"/>
         <v>Robertson</v>
       </c>
       <c r="E148" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="5"/>
@@ -6982,14 +6979,14 @@
         <v>24177480</v>
       </c>
       <c r="C149" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="4"/>
         <v>Hunt</v>
       </c>
       <c r="E149" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="5"/>
@@ -7013,14 +7010,14 @@
         <v>24178348</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="4"/>
         <v>Black</v>
       </c>
       <c r="E150" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="5"/>
@@ -7047,14 +7044,14 @@
         <v>7895608</v>
       </c>
       <c r="C151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="4"/>
         <v>Daniels</v>
       </c>
       <c r="E151" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="5"/>
@@ -7078,14 +7075,14 @@
         <v>13362004</v>
       </c>
       <c r="C152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
         <v>Palmer</v>
       </c>
       <c r="E152" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="5"/>
@@ -7109,14 +7106,14 @@
         <v>24179316</v>
       </c>
       <c r="C153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="4"/>
         <v>Mills</v>
       </c>
       <c r="E153" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="5"/>
@@ -7143,14 +7140,14 @@
         <v>34423558</v>
       </c>
       <c r="C154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="4"/>
         <v>Nichols</v>
       </c>
       <c r="E154" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="5"/>
@@ -7174,14 +7171,14 @@
         <v>23573594</v>
       </c>
       <c r="C155" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
         <v>Grant</v>
       </c>
       <c r="E155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="5"/>
@@ -7205,14 +7202,14 @@
         <v>23528</v>
       </c>
       <c r="C156" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="4"/>
         <v>Knight</v>
       </c>
       <c r="E156" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="5"/>
@@ -7236,14 +7233,14 @@
         <v>33742996</v>
       </c>
       <c r="C157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="4"/>
         <v>Ferguson</v>
       </c>
       <c r="E157" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="5"/>
